--- a/Docs/Excel/eiEsteita.xlsx
+++ b/Docs/Excel/eiEsteita.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="eiEsteita8" sheetId="2" r:id="rId1"/>
     <sheet name="eiEsteita" sheetId="1" r:id="rId2"/>
     <sheet name="eiEsteita (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
   <si>
     <t>Lahtotiedosto</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>eiEsteita008.bmp</t>
+  </si>
+  <si>
+    <t>eiEsteita009.bmp</t>
+  </si>
+  <si>
+    <t>eiEsteita0010.bmp</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -597,6 +603,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -779,22 +786,25 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>590</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>692</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>741</c:v>
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,25 +856,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>524</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1109</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1569</c:v>
+                  <c:v>1831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2551</c:v>
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,25 +929,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>157.74726860521139</c:v>
+                  <c:v>252.39562976833821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379.08559179182015</c:v>
+                  <c:v>606.53694686691222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>704.28029619496488</c:v>
+                  <c:v>1126.848473911944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1137.1389779277824</c:v>
+                  <c:v>1819.4223646844518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1680.5966674922679</c:v>
+                  <c:v>2688.9546679876289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2337.0440964025925</c:v>
+                  <c:v>3739.2705542441481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3108.4990562424732</c:v>
+                  <c:v>4973.5984899879568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6394.7320235020288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,11 +967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="416275992"/>
-        <c:axId val="416282264"/>
+        <c:axId val="409704672"/>
+        <c:axId val="409704280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416275992"/>
+        <c:axId val="409704672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1013,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416282264"/>
+        <c:crossAx val="409704280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416282264"/>
+        <c:axId val="409704280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1072,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416275992"/>
+        <c:crossAx val="409704672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,22 +1277,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>298</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>437</c:v>
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,25 +1347,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>380</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>760</c:v>
+                  <c:v>602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1267</c:v>
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,6 +1440,9 @@
                 <c:pt idx="6">
                   <c:v>1865.0994337454836</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2398.0245088132606</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1433,11 +1458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424746088"/>
-        <c:axId val="424742952"/>
+        <c:axId val="409703104"/>
+        <c:axId val="410962896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="424746088"/>
+        <c:axId val="409703104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1504,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424742952"/>
+        <c:crossAx val="410962896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424742952"/>
+        <c:axId val="410962896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1563,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424746088"/>
+        <c:crossAx val="409703104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,11 +1949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331664616"/>
-        <c:axId val="331665008"/>
+        <c:axId val="410963288"/>
+        <c:axId val="410963680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331664616"/>
+        <c:axId val="410963288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +1995,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331665008"/>
+        <c:crossAx val="410963680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1978,7 +2003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331665008"/>
+        <c:axId val="410963680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2054,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331664616"/>
+        <c:crossAx val="410963288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2415,11 +2440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331665400"/>
-        <c:axId val="331665792"/>
+        <c:axId val="410964464"/>
+        <c:axId val="410964856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331665400"/>
+        <c:axId val="410964464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2486,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331665792"/>
+        <c:crossAx val="410964856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2469,7 +2494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331665792"/>
+        <c:axId val="410964856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2545,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331665400"/>
+        <c:crossAx val="410964464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5467,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5494,26 +5519,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="5"/>
       <c r="O1">
-        <v>2.5000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P1">
         <v>1.4999999999999999E-4</v>
@@ -5567,37 +5592,37 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
-        <v>300</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
-      </c>
-      <c r="D3" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>89</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
         <v>170</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>170</v>
       </c>
       <c r="L3" s="2">
@@ -5614,45 +5639,45 @@
       </c>
       <c r="O3" s="4">
         <f>$N3*O$1</f>
-        <v>157.74726860521139</v>
+        <v>252.39562976833821</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P9" si="0">$N3*P$1</f>
+        <f t="shared" ref="P3:P10" si="0">$N3*P$1</f>
         <v>94.648361163126808</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
         <v>450</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>300</v>
       </c>
-      <c r="D4" s="2">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
-        <v>82</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="1">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
         <v>255</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>255</v>
       </c>
       <c r="L4" s="2">
@@ -5668,8 +5693,8 @@
         <v>1516342.3671672805</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" ref="O4:P9" si="4">$N4*O$1</f>
-        <v>379.08559179182015</v>
+        <f t="shared" ref="O4:O10" si="4">$N4*O$1</f>
+        <v>606.53694686691222</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
@@ -5677,37 +5702,37 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
         <v>600</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5" s="2">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
-        <v>333</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="1">
+        <v>218</v>
+      </c>
+      <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="2">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2">
-        <v>140</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="H5" s="1">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>110</v>
+      </c>
+      <c r="J5" s="1">
         <v>340</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>340</v>
       </c>
       <c r="L5" s="2">
@@ -5724,7 +5749,7 @@
       </c>
       <c r="O5" s="4">
         <f t="shared" si="4"/>
-        <v>704.28029619496488</v>
+        <v>1126.848473911944</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
@@ -5732,37 +5757,37 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
         <v>750</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>500</v>
       </c>
-      <c r="D6" s="2">
-        <v>167</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="2">
-        <v>524</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1">
+        <v>480</v>
+      </c>
+      <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="2">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2">
-        <v>220</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>180</v>
+      </c>
+      <c r="J6" s="1">
         <v>425</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>425</v>
       </c>
       <c r="L6" s="2">
@@ -5779,7 +5804,7 @@
       </c>
       <c r="O6" s="4">
         <f t="shared" si="4"/>
-        <v>1137.1389779277824</v>
+        <v>1819.4223646844518</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="0"/>
@@ -5787,37 +5812,37 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
         <v>900</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>600</v>
       </c>
-      <c r="D7" s="2">
-        <v>590</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1">
+        <v>264</v>
+      </c>
+      <c r="E7" s="1">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
-        <v>1109</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1">
+        <v>947</v>
+      </c>
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2">
-        <v>380</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="H7" s="1">
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
+        <v>512</v>
+      </c>
+      <c r="J7" s="1">
         <v>510</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>510</v>
       </c>
       <c r="L7" s="2">
@@ -5834,7 +5859,7 @@
       </c>
       <c r="O7" s="4">
         <f t="shared" si="4"/>
-        <v>1680.5966674922679</v>
+        <v>2688.9546679876289</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="0"/>
@@ -5842,37 +5867,37 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
         <v>1050</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>700</v>
       </c>
-      <c r="D8" s="2">
-        <v>692</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1">
+        <v>431</v>
+      </c>
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
-        <v>1569</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="1">
+        <v>1831</v>
+      </c>
+      <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="2">
-        <v>298</v>
-      </c>
-      <c r="I8" s="2">
-        <v>760</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="H8" s="1">
+        <v>282</v>
+      </c>
+      <c r="I8" s="1">
+        <v>602</v>
+      </c>
+      <c r="J8" s="1">
         <v>595</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>595</v>
       </c>
       <c r="L8" s="2">
@@ -5889,7 +5914,7 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="4"/>
-        <v>2337.0440964025925</v>
+        <v>3739.2705542441481</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
@@ -5897,37 +5922,37 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
         <v>1200</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>800</v>
       </c>
-      <c r="D9" s="2">
-        <v>741</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1">
+        <v>959</v>
+      </c>
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
-        <v>2551</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="1">
+        <v>1472</v>
+      </c>
+      <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="2">
-        <v>437</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1267</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="H9" s="1">
+        <v>312</v>
+      </c>
+      <c r="I9" s="1">
+        <v>777</v>
+      </c>
+      <c r="J9" s="1">
         <v>680</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>680</v>
       </c>
       <c r="L9" s="2">
@@ -5944,7 +5969,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="4"/>
-        <v>3108.4990562424732</v>
+        <v>4973.5984899879568</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="0"/>
@@ -5952,21 +5977,59 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1350</v>
+      </c>
+      <c r="C10" s="1">
+        <v>900</v>
+      </c>
+      <c r="D10" s="1">
+        <v>671</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5087</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>492</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1122</v>
+      </c>
+      <c r="J10" s="1">
+        <v>765</v>
+      </c>
+      <c r="K10" s="1">
+        <v>765</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="5">B10*C10</f>
+        <v>1215000</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10" si="6">(B10-1)*(C10-1)*2+(B10-1)+(C10-1)</f>
+        <v>2427750</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10" si="7">L10+M10*LOG(L10)</f>
+        <v>15986830.058755072</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="4"/>
+        <v>6394.7320235020288</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>2398.0245088132606</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5984,7 +6047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10:P10"/>
     </sheetView>
   </sheetViews>
@@ -6011,24 +6074,24 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="5"/>
       <c r="O1">
         <v>2.5000000000000001E-4</v>
       </c>
@@ -6185,7 +6248,7 @@
         <v>1516342.3671672805</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" ref="O4:P10" si="4">$N4*O$1</f>
+        <f t="shared" ref="O4:O10" si="4">$N4*O$1</f>
         <v>379.08559179182015</v>
       </c>
       <c r="P4" s="4">

--- a/Docs/Excel/eiEsteita.xlsx
+++ b/Docs/Excel/eiEsteita.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
   </bookViews>
   <sheets>
-    <sheet name="eiEsteita8" sheetId="2" r:id="rId1"/>
-    <sheet name="eiEsteita" sheetId="1" r:id="rId2"/>
-    <sheet name="eiEsteita (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="eiEsteita" sheetId="1" r:id="rId1"/>
+    <sheet name="eiEsteitaAjo0" sheetId="7" r:id="rId2"/>
+    <sheet name="eiEsteitaAjo1" sheetId="4" r:id="rId3"/>
+    <sheet name="eiEsteitaAjo2" sheetId="5" r:id="rId4"/>
+    <sheet name="eiEsteitaAjo3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Lahtotiedosto</t>
   </si>
@@ -90,15 +92,6 @@
   </si>
   <si>
     <t>(n+m) * log n</t>
-  </si>
-  <si>
-    <t>vakio1 * (n+m) * log n</t>
-  </si>
-  <si>
-    <t>vakio2 * (n+m) * log n</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>eiEsteita008.bmp</t>
@@ -591,7 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -603,6 +596,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -776,6 +770,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eiEsteita!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>eiEsteita!$D$3:$D$10</c:f>
@@ -849,6 +876,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eiEsteita!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>eiEsteita!$F$3:$F$10</c:f>
@@ -893,7 +953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vakio1 * (n+m) * log n</c:v>
+                  <c:v>0,0004 * (n+m) * log n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -922,6 +982,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eiEsteita!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>eiEsteita!$O$3:$O$10</c:f>
@@ -967,16 +1060,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409704672"/>
-        <c:axId val="409704280"/>
+        <c:axId val="433317144"/>
+        <c:axId val="433317536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="409704672"/>
+        <c:axId val="433317144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1013,7 +1107,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409704280"/>
+        <c:crossAx val="433317536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409704280"/>
+        <c:axId val="433317536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1166,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409704672"/>
+        <c:crossAx val="433317144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,6 +1361,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eiEsteita!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>eiEsteita!$H$3:$H$10</c:f>
@@ -1340,6 +1467,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eiEsteita!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>eiEsteita!$I$3:$I$10</c:f>
@@ -1384,7 +1544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vakio2 * (n+m) * log n</c:v>
+                  <c:v>0,00013 * (n+m) * log n</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1413,6 +1573,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>eiEsteita!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>eiEsteita!$P$3:$P$10</c:f>
@@ -1420,28 +1613,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>94.648361163126808</c:v>
+                  <c:v>82.028579674709903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.45135507509207</c:v>
+                  <c:v>197.12450773174646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>422.56817771697888</c:v>
+                  <c:v>366.2257540213817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>682.2833867566693</c:v>
+                  <c:v>591.31226852244674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1008.3580004953607</c:v>
+                  <c:v>873.91026709597918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1402.2264578415554</c:v>
+                  <c:v>1215.262930129348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1865.0994337454836</c:v>
+                  <c:v>1616.4195092460859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2398.0245088132606</c:v>
+                  <c:v>2078.2879076381591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,16 +1651,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409703104"/>
-        <c:axId val="410962896"/>
+        <c:axId val="433318320"/>
+        <c:axId val="433318712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="409703104"/>
+        <c:axId val="433318320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1504,7 +1698,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410962896"/>
+        <c:crossAx val="433318712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1512,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410962896"/>
+        <c:axId val="433318712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,989 +1757,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409703104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>KESKIMAARAINEN ratkaisuaika (ms)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eiEsteita (2)'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Astar/aika</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'eiEsteita (2)'!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eiEsteita (2)'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dijkstra/aika</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'eiEsteita (2)'!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eiEsteita (2)'!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>vakio1 * (n+m) * log n</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'eiEsteita (2)'!$O$3:$O$10</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>157.74726860521139</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>379.08559179182015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>704.28029619496488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1137.1389779277824</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1680.5966674922679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2337.0440964025925</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3108.4990562424732</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3996.7075146887682</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="410963288"/>
-        <c:axId val="410963680"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="410963288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="410963680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="410963680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="410963288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>PIENIN ratkaisuaika (ms)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eiEsteita (2)'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Astar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'eiEsteita (2)'!$H$3:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1247</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1683</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eiEsteita (2)'!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dijkstra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'eiEsteita (2)'!$I$3:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1412</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5525</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'eiEsteita (2)'!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>vakio2 * (n+m) * log n</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'eiEsteita (2)'!$P$3:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>94.648361163126808</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>227.45135507509207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>422.56817771697888</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>682.2833867566693</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1008.3580004953607</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1402.2264578415554</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1865.0994337454836</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2398.0245088132606</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="410964464"/>
-        <c:axId val="410964856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="410964464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="410964856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="410964856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="410964464"/>
+        <c:crossAx val="433318320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2706,86 +1918,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3792,1026 +2924,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>83482</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>113460</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16246</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388282</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>189660</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4847,75 +2973,6 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>83482</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>113460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388282</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>189660</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146796</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>694764</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>32496</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5195,302 +3252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>300</v>
-      </c>
-      <c r="C1">
-        <v>200</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1">
-        <v>120</v>
-      </c>
-      <c r="I1">
-        <v>330</v>
-      </c>
-      <c r="J1">
-        <v>170</v>
-      </c>
-      <c r="K1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>450</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>270</v>
-      </c>
-      <c r="I2">
-        <v>180</v>
-      </c>
-      <c r="J2">
-        <v>255</v>
-      </c>
-      <c r="K2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>600</v>
-      </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>390</v>
-      </c>
-      <c r="I3">
-        <v>270</v>
-      </c>
-      <c r="J3">
-        <v>340</v>
-      </c>
-      <c r="K3">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>750</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>338</v>
-      </c>
-      <c r="I4">
-        <v>1412</v>
-      </c>
-      <c r="J4">
-        <v>425</v>
-      </c>
-      <c r="K4">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>900</v>
-      </c>
-      <c r="C5">
-        <v>600</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>225</v>
-      </c>
-      <c r="I5">
-        <v>740</v>
-      </c>
-      <c r="J5">
-        <v>510</v>
-      </c>
-      <c r="K5">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1050</v>
-      </c>
-      <c r="C6">
-        <v>700</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>1247</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6">
-        <v>595</v>
-      </c>
-      <c r="K6">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1200</v>
-      </c>
-      <c r="C7">
-        <v>800</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>1683</v>
-      </c>
-      <c r="I7">
-        <v>5525</v>
-      </c>
-      <c r="J7">
-        <v>680</v>
-      </c>
-      <c r="K7">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1350</v>
-      </c>
-      <c r="C8">
-        <v>900</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>1050</v>
-      </c>
-      <c r="I8">
-        <v>4887</v>
-      </c>
-      <c r="J8">
-        <v>765</v>
-      </c>
-      <c r="K8">
-        <v>765</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K10"/>
@@ -5515,36 +3277,37 @@
     <col min="15" max="16" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="6"/>
       <c r="O1">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P1">
-        <v>1.4999999999999999E-4</v>
-      </c>
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5584,14 +3347,17 @@
       <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="O2" s="3" t="str">
+        <f>O1&amp;" * (n+m) * log n"</f>
+        <v>0,0004 * (n+m) * log n</v>
+      </c>
+      <c r="P2" s="3" t="str">
+        <f>P1&amp;" * (n+m) * log n"</f>
+        <v>0,00013 * (n+m) * log n</v>
+      </c>
+      <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5643,10 +3409,10 @@
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P10" si="0">$N3*P$1</f>
-        <v>94.648361163126808</v>
+        <v>82.028579674709903</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5698,10 +3464,10 @@
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>227.45135507509207</v>
+        <v>197.12450773174646</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5753,10 +3519,10 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>422.56817771697888</v>
+        <v>366.2257540213817</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5808,10 +3574,10 @@
       </c>
       <c r="P6" s="4">
         <f t="shared" si="0"/>
-        <v>682.2833867566693</v>
+        <v>591.31226852244674</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5863,12 +3629,12 @@
       </c>
       <c r="P7" s="4">
         <f t="shared" si="0"/>
-        <v>1008.3580004953607</v>
+        <v>873.91026709597918</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>1050</v>
@@ -5918,12 +3684,12 @@
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>1402.2264578415554</v>
+        <v>1215.262930129348</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>1200</v>
@@ -5973,12 +3739,12 @@
       </c>
       <c r="P9" s="4">
         <f t="shared" si="0"/>
-        <v>1865.0994337454836</v>
+        <v>1616.4195092460859</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>1350</v>
@@ -6028,7 +3794,7 @@
       </c>
       <c r="P10" s="4">
         <f t="shared" si="0"/>
-        <v>2398.0245088132606</v>
+        <v>2078.2879076381591</v>
       </c>
     </row>
   </sheetData>
@@ -6043,557 +3809,1401 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5">
+        <v>300</v>
+      </c>
+      <c r="C1" s="5">
+        <v>200</v>
+      </c>
+      <c r="D1" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5">
+        <v>170</v>
+      </c>
+      <c r="K1" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>450</v>
+      </c>
+      <c r="C2" s="5">
+        <v>300</v>
+      </c>
+      <c r="D2" s="5">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
+        <v>78</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5">
+        <v>255</v>
+      </c>
+      <c r="K2" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>600</v>
+      </c>
+      <c r="C3" s="5">
+        <v>400</v>
+      </c>
+      <c r="D3" s="5">
+        <v>98</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>218</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>110</v>
+      </c>
+      <c r="J3" s="5">
+        <v>340</v>
+      </c>
+      <c r="K3" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>750</v>
+      </c>
+      <c r="C4" s="5">
+        <v>500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
+        <v>480</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5">
+        <v>50</v>
+      </c>
+      <c r="I4" s="5">
+        <v>180</v>
+      </c>
+      <c r="J4" s="5">
+        <v>425</v>
+      </c>
+      <c r="K4" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>900</v>
+      </c>
+      <c r="C5" s="5">
+        <v>600</v>
+      </c>
+      <c r="D5" s="5">
+        <v>264</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>947</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>70</v>
+      </c>
+      <c r="I5" s="5">
+        <v>512</v>
+      </c>
+      <c r="J5" s="5">
+        <v>510</v>
+      </c>
+      <c r="K5" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C6" s="5">
+        <v>700</v>
+      </c>
+      <c r="D6" s="5">
+        <v>431</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1831</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>282</v>
+      </c>
+      <c r="I6" s="5">
+        <v>602</v>
+      </c>
+      <c r="J6" s="5">
+        <v>595</v>
+      </c>
+      <c r="K6" s="5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="5">
+        <v>800</v>
+      </c>
+      <c r="D7" s="5">
+        <v>959</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1472</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>312</v>
+      </c>
+      <c r="I7" s="5">
+        <v>777</v>
+      </c>
+      <c r="J7" s="5">
+        <v>680</v>
+      </c>
+      <c r="K7" s="5">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C8" s="5">
+        <v>900</v>
+      </c>
+      <c r="D8" s="5">
+        <v>671</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5087</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>492</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1122</v>
+      </c>
+      <c r="J8" s="5">
+        <v>765</v>
+      </c>
+      <c r="K8" s="5">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5">
+        <v>300</v>
+      </c>
+      <c r="C1" s="5">
+        <v>200</v>
+      </c>
+      <c r="D1" s="5">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5">
+        <v>39</v>
+      </c>
+      <c r="G1" s="5">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5">
+        <v>170</v>
+      </c>
+      <c r="K1" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>300</v>
+      </c>
+      <c r="C2" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>170</v>
+      </c>
+      <c r="K2" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>300</v>
+      </c>
+      <c r="C3" s="5">
+        <v>200</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
         <v>19</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="G3" s="5">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>170</v>
+      </c>
+      <c r="K3" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>450</v>
+      </c>
+      <c r="C4" s="5">
+        <v>300</v>
+      </c>
+      <c r="D4" s="5">
         <v>21</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="O1">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="P1">
-        <v>1.4999999999999999E-4</v>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>55</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5">
+        <v>255</v>
+      </c>
+      <c r="K4" s="5">
+        <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>600</v>
+      </c>
+      <c r="C5" s="5">
+        <v>400</v>
+      </c>
+      <c r="D5" s="5">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>197</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5">
+        <v>93</v>
+      </c>
+      <c r="J5" s="5">
+        <v>340</v>
+      </c>
+      <c r="K5" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>750</v>
+      </c>
+      <c r="C6" s="5">
+        <v>500</v>
+      </c>
+      <c r="D6" s="5">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>497</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>46</v>
+      </c>
+      <c r="I6" s="5">
+        <v>156</v>
+      </c>
+      <c r="J6" s="5">
+        <v>425</v>
+      </c>
+      <c r="K6" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>900</v>
+      </c>
+      <c r="C7" s="5">
+        <v>600</v>
+      </c>
+      <c r="D7" s="5">
+        <v>439</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>466</v>
+      </c>
+      <c r="G7" s="5">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>78</v>
+      </c>
+      <c r="I7" s="5">
+        <v>250</v>
+      </c>
+      <c r="J7" s="5">
+        <v>510</v>
+      </c>
+      <c r="K7" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="B8" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C8" s="5">
+        <v>700</v>
+      </c>
+      <c r="D8" s="5">
+        <v>512</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1413</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>218</v>
+      </c>
+      <c r="I8" s="5">
+        <v>530</v>
+      </c>
+      <c r="J8" s="5">
+        <v>595</v>
+      </c>
+      <c r="K8" s="5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="5">
+        <v>800</v>
+      </c>
+      <c r="D9" s="5">
+        <v>831</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1689</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>281</v>
+      </c>
+      <c r="I9" s="5">
+        <v>639</v>
+      </c>
+      <c r="J9" s="5">
+        <v>680</v>
+      </c>
+      <c r="K9" s="5">
+        <v>680</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>120</v>
-      </c>
-      <c r="I3">
-        <v>330</v>
-      </c>
-      <c r="J3">
-        <v>170</v>
-      </c>
-      <c r="K3">
-        <v>170</v>
-      </c>
-      <c r="L3" s="2">
-        <f>B3*C3</f>
-        <v>60000</v>
-      </c>
-      <c r="M3" s="2">
-        <f>(B3-1)*(C3-1)*2+(B3-1)+(C3-1)</f>
-        <v>119500</v>
-      </c>
-      <c r="N3" s="4">
-        <f>L3+M3*LOG(L3)</f>
-        <v>630989.07442084549</v>
-      </c>
-      <c r="O3" s="4">
-        <f>$N3*O$1</f>
-        <v>157.74726860521139</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:P10" si="0">$N3*P$1</f>
-        <v>94.648361163126808</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>450</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>270</v>
-      </c>
-      <c r="I4">
-        <v>180</v>
-      </c>
-      <c r="J4">
-        <v>255</v>
-      </c>
-      <c r="K4">
-        <v>255</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L9" si="1">B4*C4</f>
-        <v>135000</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M9" si="2">(B4-1)*(C4-1)*2+(B4-1)+(C4-1)</f>
-        <v>269250</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" ref="N4:N9" si="3">L4+M4*LOG(L4)</f>
-        <v>1516342.3671672805</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" ref="O4:O10" si="4">$N4*O$1</f>
-        <v>379.08559179182015</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="0"/>
-        <v>227.45135507509207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>390</v>
-      </c>
-      <c r="I5">
-        <v>270</v>
-      </c>
-      <c r="J5">
-        <v>340</v>
-      </c>
-      <c r="K5">
-        <v>340</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="1"/>
-        <v>240000</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>479000</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="3"/>
-        <v>2817121.1847798596</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="4"/>
-        <v>704.28029619496488</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="0"/>
-        <v>422.56817771697888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>750</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>338</v>
-      </c>
-      <c r="I6">
-        <v>1412</v>
-      </c>
-      <c r="J6">
-        <v>425</v>
-      </c>
-      <c r="K6">
-        <v>425</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>375000</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="2"/>
-        <v>748750</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="3"/>
-        <v>4548555.9117111294</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="4"/>
-        <v>1137.1389779277824</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="0"/>
-        <v>682.2833867566693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="B10" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C10" s="5">
         <v>900</v>
       </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>225</v>
-      </c>
-      <c r="I7">
-        <v>740</v>
-      </c>
-      <c r="J7">
-        <v>510</v>
-      </c>
-      <c r="K7">
-        <v>510</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>540000</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="2"/>
-        <v>1078500</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="3"/>
-        <v>6722386.6699690716</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="4"/>
-        <v>1680.5966674922679</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="0"/>
-        <v>1008.3580004953607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1050</v>
-      </c>
-      <c r="C8">
-        <v>700</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>1247</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8">
-        <v>595</v>
-      </c>
-      <c r="K8">
-        <v>595</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>735000</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
-        <v>1468250</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="3"/>
-        <v>9348176.38561037</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="4"/>
-        <v>2337.0440964025925</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="0"/>
-        <v>1402.2264578415554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>1200</v>
-      </c>
-      <c r="C9">
-        <v>800</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9">
-        <v>1683</v>
-      </c>
-      <c r="I9">
-        <v>5525</v>
-      </c>
-      <c r="J9">
-        <v>680</v>
-      </c>
-      <c r="K9">
-        <v>680</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="1"/>
-        <v>960000</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="2"/>
-        <v>1918000</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="3"/>
-        <v>12433996.224969892</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="4"/>
-        <v>3108.4990562424732</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="0"/>
-        <v>1865.0994337454836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>1350</v>
-      </c>
-      <c r="C10">
-        <v>900</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10">
-        <v>1050</v>
-      </c>
-      <c r="I10">
-        <v>4887</v>
-      </c>
-      <c r="J10">
+      <c r="D10" s="5">
+        <v>647</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4641</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>375</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3885</v>
+      </c>
+      <c r="J10" s="5">
         <v>765</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>765</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" ref="L10" si="5">B10*C10</f>
-        <v>1215000</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" ref="M10" si="6">(B10-1)*(C10-1)*2+(B10-1)+(C10-1)</f>
-        <v>2427750</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" ref="N10" si="7">L10+M10*LOG(L10)</f>
-        <v>15986830.058755072</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="4"/>
-        <v>3996.7075146887682</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="0"/>
-        <v>2398.0245088132606</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5">
+        <v>300</v>
+      </c>
+      <c r="C1" s="5">
+        <v>200</v>
+      </c>
+      <c r="D1" s="5">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5">
+        <v>170</v>
+      </c>
+      <c r="K1" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>300</v>
+      </c>
+      <c r="C2" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2" s="5">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>170</v>
+      </c>
+      <c r="K2" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>300</v>
+      </c>
+      <c r="C3" s="5">
+        <v>200</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>170</v>
+      </c>
+      <c r="K3" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>450</v>
+      </c>
+      <c r="C4" s="5">
+        <v>300</v>
+      </c>
+      <c r="D4" s="5">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>56</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5">
+        <v>255</v>
+      </c>
+      <c r="K4" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>600</v>
+      </c>
+      <c r="C5" s="5">
+        <v>400</v>
+      </c>
+      <c r="D5" s="5">
+        <v>97</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>174</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5">
+        <v>93</v>
+      </c>
+      <c r="J5" s="5">
+        <v>340</v>
+      </c>
+      <c r="K5" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>750</v>
+      </c>
+      <c r="C6" s="5">
+        <v>500</v>
+      </c>
+      <c r="D6" s="5">
+        <v>97</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>423</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>46</v>
+      </c>
+      <c r="I6" s="5">
+        <v>171</v>
+      </c>
+      <c r="J6" s="5">
+        <v>425</v>
+      </c>
+      <c r="K6" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>900</v>
+      </c>
+      <c r="C7" s="5">
+        <v>600</v>
+      </c>
+      <c r="D7" s="5">
+        <v>264</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>952</v>
+      </c>
+      <c r="G7" s="5">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>110</v>
+      </c>
+      <c r="I7" s="5">
+        <v>250</v>
+      </c>
+      <c r="J7" s="5">
+        <v>510</v>
+      </c>
+      <c r="K7" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C8" s="5">
+        <v>700</v>
+      </c>
+      <c r="D8" s="5">
+        <v>447</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1302</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>218</v>
+      </c>
+      <c r="I8" s="5">
+        <v>670</v>
+      </c>
+      <c r="J8" s="5">
+        <v>595</v>
+      </c>
+      <c r="K8" s="5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="5">
+        <v>800</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1025</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1240</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>406</v>
+      </c>
+      <c r="I9" s="5">
+        <v>639</v>
+      </c>
+      <c r="J9" s="5">
+        <v>680</v>
+      </c>
+      <c r="K9" s="5">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C10" s="5">
+        <v>900</v>
+      </c>
+      <c r="D10" s="5">
+        <v>644</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4611</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>405</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1529</v>
+      </c>
+      <c r="J10" s="5">
+        <v>765</v>
+      </c>
+      <c r="K10" s="5">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5">
+        <v>300</v>
+      </c>
+      <c r="C1" s="5">
+        <v>200</v>
+      </c>
+      <c r="D1" s="5">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5">
+        <v>170</v>
+      </c>
+      <c r="K1" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>300</v>
+      </c>
+      <c r="C2" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2" s="5">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>170</v>
+      </c>
+      <c r="K2" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>300</v>
+      </c>
+      <c r="C3" s="5">
+        <v>200</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>170</v>
+      </c>
+      <c r="K3" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>450</v>
+      </c>
+      <c r="C4" s="5">
+        <v>300</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5">
+        <v>255</v>
+      </c>
+      <c r="K4" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>600</v>
+      </c>
+      <c r="C5" s="5">
+        <v>400</v>
+      </c>
+      <c r="D5" s="5">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>151</v>
+      </c>
+      <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5">
+        <v>93</v>
+      </c>
+      <c r="J5" s="5">
+        <v>340</v>
+      </c>
+      <c r="K5" s="5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>750</v>
+      </c>
+      <c r="C6" s="5">
+        <v>500</v>
+      </c>
+      <c r="D6" s="5">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>517</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>46</v>
+      </c>
+      <c r="I6" s="5">
+        <v>171</v>
+      </c>
+      <c r="J6" s="5">
+        <v>425</v>
+      </c>
+      <c r="K6" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>900</v>
+      </c>
+      <c r="C7" s="5">
+        <v>600</v>
+      </c>
+      <c r="D7" s="5">
+        <v>475</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>487</v>
+      </c>
+      <c r="G7" s="5">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>78</v>
+      </c>
+      <c r="I7" s="5">
+        <v>249</v>
+      </c>
+      <c r="J7" s="5">
+        <v>510</v>
+      </c>
+      <c r="K7" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1050</v>
+      </c>
+      <c r="C8" s="5">
+        <v>700</v>
+      </c>
+      <c r="D8" s="5">
+        <v>550</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1206</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>203</v>
+      </c>
+      <c r="I8" s="5">
+        <v>562</v>
+      </c>
+      <c r="J8" s="5">
+        <v>595</v>
+      </c>
+      <c r="K8" s="5">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="5">
+        <v>800</v>
+      </c>
+      <c r="D9" s="5">
+        <v>862</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1104</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>328</v>
+      </c>
+      <c r="I9" s="5">
+        <v>640</v>
+      </c>
+      <c r="J9" s="5">
+        <v>680</v>
+      </c>
+      <c r="K9" s="5">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C10" s="5">
+        <v>900</v>
+      </c>
+      <c r="D10" s="5">
+        <v>642</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4619</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>421</v>
+      </c>
+      <c r="I10" s="5">
+        <v>998</v>
+      </c>
+      <c r="J10" s="5">
+        <v>765</v>
+      </c>
+      <c r="K10" s="5">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>